--- a/data/pca/factorExposure/factorExposure_2010-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-03.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01339178964437533</v>
+        <v>-0.01708379251127026</v>
       </c>
       <c r="C2">
-        <v>0.003091819225215433</v>
+        <v>-0.001160235652360988</v>
       </c>
       <c r="D2">
-        <v>-0.015556434923924</v>
+        <v>-0.00848759384843161</v>
       </c>
       <c r="E2">
-        <v>0.01974372995430158</v>
+        <v>0.0008694603812387539</v>
       </c>
       <c r="F2">
-        <v>-0.01823355573738838</v>
+        <v>-0.01112731062128796</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1165909794992511</v>
+        <v>-0.09302278288027951</v>
       </c>
       <c r="C4">
-        <v>0.08374800762108919</v>
+        <v>-0.01695888553282624</v>
       </c>
       <c r="D4">
-        <v>0.01710518469415687</v>
+        <v>-0.08350651114675746</v>
       </c>
       <c r="E4">
-        <v>0.01570838426783827</v>
+        <v>-0.03003049221912936</v>
       </c>
       <c r="F4">
-        <v>-0.04520490765582046</v>
+        <v>0.03228034691758366</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1268634774022882</v>
+        <v>-0.1531080302928762</v>
       </c>
       <c r="C6">
-        <v>0.03018430458438845</v>
+        <v>-0.02481902302391355</v>
       </c>
       <c r="D6">
-        <v>-0.02285588333300443</v>
+        <v>0.02217183344587109</v>
       </c>
       <c r="E6">
-        <v>-0.04581404752303615</v>
+        <v>-0.009284652159810398</v>
       </c>
       <c r="F6">
-        <v>0.01338462815792888</v>
+        <v>0.04111783241165582</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07616109212147679</v>
+        <v>-0.06013670753672318</v>
       </c>
       <c r="C7">
-        <v>0.0802962641575134</v>
+        <v>0.0003219905393861444</v>
       </c>
       <c r="D7">
-        <v>-0.006460099276747658</v>
+        <v>-0.05123534051708289</v>
       </c>
       <c r="E7">
-        <v>0.03850978541002823</v>
+        <v>-0.01505551070851201</v>
       </c>
       <c r="F7">
-        <v>-0.0123049686729402</v>
+        <v>0.05471530647270844</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04843285532949543</v>
+        <v>-0.05871455874040053</v>
       </c>
       <c r="C8">
-        <v>0.04506324222109448</v>
+        <v>0.01275071194001444</v>
       </c>
       <c r="D8">
-        <v>-0.001008603730221661</v>
+        <v>-0.02986932524127443</v>
       </c>
       <c r="E8">
-        <v>-0.03219849580996832</v>
+        <v>-0.0144319700258425</v>
       </c>
       <c r="F8">
-        <v>-0.01124765098278152</v>
+        <v>-0.02948500029764686</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0826382590845894</v>
+        <v>-0.07113737918867732</v>
       </c>
       <c r="C9">
-        <v>0.06687155873337562</v>
+        <v>-0.01309331242381266</v>
       </c>
       <c r="D9">
-        <v>0.02365649939423065</v>
+        <v>-0.08361144027367756</v>
       </c>
       <c r="E9">
-        <v>0.01003159536779005</v>
+        <v>-0.02559764198609495</v>
       </c>
       <c r="F9">
-        <v>-0.03822345476746931</v>
+        <v>0.05389585719843021</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1260439611413279</v>
+        <v>-0.09396708247772585</v>
       </c>
       <c r="C10">
-        <v>-0.1580137007529706</v>
+        <v>-0.01675945301485449</v>
       </c>
       <c r="D10">
-        <v>-0.01598118021847445</v>
+        <v>0.17156010448142</v>
       </c>
       <c r="E10">
-        <v>0.03423240171152376</v>
+        <v>0.03788742194232372</v>
       </c>
       <c r="F10">
-        <v>-0.0006138999314708627</v>
+        <v>-0.0526368387183043</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07787986106667003</v>
+        <v>-0.08777414382973431</v>
       </c>
       <c r="C11">
-        <v>0.0727869109524053</v>
+        <v>-0.01247434166251161</v>
       </c>
       <c r="D11">
-        <v>0.0307628695936792</v>
+        <v>-0.1144108257083754</v>
       </c>
       <c r="E11">
-        <v>-0.004542696482238644</v>
+        <v>-0.04832285814944972</v>
       </c>
       <c r="F11">
-        <v>-0.03769535567184536</v>
+        <v>0.02186908846274863</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07120518195998764</v>
+        <v>-0.09304839804251822</v>
       </c>
       <c r="C12">
-        <v>0.07316184839190175</v>
+        <v>-0.01032949485480866</v>
       </c>
       <c r="D12">
-        <v>0.0532381857907484</v>
+        <v>-0.1212931662850735</v>
       </c>
       <c r="E12">
-        <v>0.01682004057594467</v>
+        <v>-0.04753930639013672</v>
       </c>
       <c r="F12">
-        <v>0.003574769616734252</v>
+        <v>0.02414704988031212</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.032183557946383</v>
+        <v>-0.04287790153132945</v>
       </c>
       <c r="C13">
-        <v>0.03109143460818892</v>
+        <v>-0.003929143617806615</v>
       </c>
       <c r="D13">
-        <v>-0.01659812386209378</v>
+        <v>-0.04782147128589541</v>
       </c>
       <c r="E13">
-        <v>0.01621175447102295</v>
+        <v>0.01139497613788421</v>
       </c>
       <c r="F13">
-        <v>0.008411487800108575</v>
+        <v>0.01430444897449936</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03807234753735379</v>
+        <v>-0.02217822889287619</v>
       </c>
       <c r="C14">
-        <v>0.0342286695459395</v>
+        <v>-0.0146434074686089</v>
       </c>
       <c r="D14">
-        <v>0.0227800665065167</v>
+        <v>-0.03306931073622955</v>
       </c>
       <c r="E14">
-        <v>-0.001581501310903622</v>
+        <v>-0.01933211953307701</v>
       </c>
       <c r="F14">
-        <v>0.008318361124847932</v>
+        <v>0.01909876895457869</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01482283517508162</v>
+        <v>-0.0319123969917235</v>
       </c>
       <c r="C15">
-        <v>0.01815489875176701</v>
+        <v>-0.005504044201684637</v>
       </c>
       <c r="D15">
-        <v>-0.07029221049701072</v>
+        <v>-0.04561167107509528</v>
       </c>
       <c r="E15">
-        <v>0.01070313351878877</v>
+        <v>-0.009207770071826476</v>
       </c>
       <c r="F15">
-        <v>-0.01404347075168151</v>
+        <v>0.03190850404186958</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08233894429275634</v>
+        <v>-0.07422277274913737</v>
       </c>
       <c r="C16">
-        <v>0.07027788446246784</v>
+        <v>-0.003967464403712738</v>
       </c>
       <c r="D16">
-        <v>0.04409359326966372</v>
+        <v>-0.1161892176772628</v>
       </c>
       <c r="E16">
-        <v>-0.02298861705217657</v>
+        <v>-0.06261334739298216</v>
       </c>
       <c r="F16">
-        <v>-0.01897025027285504</v>
+        <v>0.03262649092171394</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02168779448968954</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003750600149140244</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0213097058016876</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01097272137712458</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02367445777296184</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04405850907098981</v>
+        <v>-0.06141277433416083</v>
       </c>
       <c r="C20">
-        <v>0.0467520035216526</v>
+        <v>-0.001880608180719679</v>
       </c>
       <c r="D20">
-        <v>-0.03007496237518993</v>
+        <v>-0.07436081718859827</v>
       </c>
       <c r="E20">
-        <v>0.02942545324973098</v>
+        <v>-0.05583975985233055</v>
       </c>
       <c r="F20">
-        <v>0.01311921604505615</v>
+        <v>0.02924789669289245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02296410878440809</v>
+        <v>-0.03853873600105041</v>
       </c>
       <c r="C21">
-        <v>0.007791307164628768</v>
+        <v>-0.007698049763211224</v>
       </c>
       <c r="D21">
-        <v>0.0157603486327956</v>
+        <v>-0.03537834014660255</v>
       </c>
       <c r="E21">
-        <v>-0.002569653575536035</v>
+        <v>0.008409556397963362</v>
       </c>
       <c r="F21">
-        <v>-0.01530815336103081</v>
+        <v>-0.02057540822823908</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05209721093159977</v>
+        <v>-0.0417696992667799</v>
       </c>
       <c r="C22">
-        <v>0.008252844512442913</v>
+        <v>-5.203380325493379e-05</v>
       </c>
       <c r="D22">
-        <v>-0.6296311316432833</v>
+        <v>-0.002627714715292309</v>
       </c>
       <c r="E22">
-        <v>0.1002166665359458</v>
+        <v>-0.02911737057994487</v>
       </c>
       <c r="F22">
-        <v>0.1413681163073123</v>
+        <v>-0.01053154653615813</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05271893162947892</v>
+        <v>-0.04183127982039909</v>
       </c>
       <c r="C23">
-        <v>0.009394945252661879</v>
+        <v>-7.690864478443029e-05</v>
       </c>
       <c r="D23">
-        <v>-0.6320388778417652</v>
+        <v>-0.002748697611118537</v>
       </c>
       <c r="E23">
-        <v>0.09942006638910016</v>
+        <v>-0.02946821317422308</v>
       </c>
       <c r="F23">
-        <v>0.1411329716259715</v>
+        <v>-0.01007474600420736</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0813999998165478</v>
+        <v>-0.08068106943445169</v>
       </c>
       <c r="C24">
-        <v>0.06995721082646242</v>
+        <v>-0.004320772943923181</v>
       </c>
       <c r="D24">
-        <v>0.03613569770598488</v>
+        <v>-0.1172566751672358</v>
       </c>
       <c r="E24">
-        <v>-0.002237698600794646</v>
+        <v>-0.05048831003812919</v>
       </c>
       <c r="F24">
-        <v>-0.03831116657180215</v>
+        <v>0.02491331526061847</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08484331563181691</v>
+        <v>-0.08519820107402433</v>
       </c>
       <c r="C25">
-        <v>0.07090768399830566</v>
+        <v>-0.006322871988313426</v>
       </c>
       <c r="D25">
-        <v>0.05260042093104416</v>
+        <v>-0.1057453908699512</v>
       </c>
       <c r="E25">
-        <v>0.01032789773718976</v>
+        <v>-0.03374224804515179</v>
       </c>
       <c r="F25">
-        <v>-0.01548973514792364</v>
+        <v>0.03230792452840808</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03901881158597638</v>
+        <v>-0.05542769023427537</v>
       </c>
       <c r="C26">
-        <v>-0.003861055030314105</v>
+        <v>-0.0152691216881729</v>
       </c>
       <c r="D26">
-        <v>-0.01469745560810255</v>
+        <v>-0.03597848929523461</v>
       </c>
       <c r="E26">
-        <v>-0.02311175863000867</v>
+        <v>-0.02815633762610863</v>
       </c>
       <c r="F26">
-        <v>0.02449948148755219</v>
+        <v>-0.007850931285975667</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.143993000627466</v>
+        <v>-0.1417076949091463</v>
       </c>
       <c r="C28">
-        <v>-0.2853397001608111</v>
+        <v>-0.01466561243515888</v>
       </c>
       <c r="D28">
-        <v>0.008120888658778046</v>
+        <v>0.2673688296519218</v>
       </c>
       <c r="E28">
-        <v>-0.06785127621066696</v>
+        <v>0.06773195929096434</v>
       </c>
       <c r="F28">
-        <v>0.02993669060201841</v>
+        <v>0.031269779455614</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0359802791447025</v>
+        <v>-0.02711500566058627</v>
       </c>
       <c r="C29">
-        <v>0.03189420863139519</v>
+        <v>-0.008855842128428392</v>
       </c>
       <c r="D29">
-        <v>0.02611526331832188</v>
+        <v>-0.03177318761605154</v>
       </c>
       <c r="E29">
-        <v>0.03301628915969983</v>
+        <v>-0.01228021980441038</v>
       </c>
       <c r="F29">
-        <v>0.01718102752328883</v>
+        <v>-0.01166104061860735</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09690240758130077</v>
+        <v>-0.06359187875876746</v>
       </c>
       <c r="C30">
-        <v>0.1031553448668432</v>
+        <v>-0.00582797311731782</v>
       </c>
       <c r="D30">
-        <v>0.06840248031244635</v>
+        <v>-0.08306537680160948</v>
       </c>
       <c r="E30">
-        <v>-0.05874751718003038</v>
+        <v>-0.02508576123924632</v>
       </c>
       <c r="F30">
-        <v>0.08999781303777808</v>
+        <v>0.1078300187100101</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03006444911181393</v>
+        <v>-0.04844221746249174</v>
       </c>
       <c r="C31">
-        <v>0.04532331955392331</v>
+        <v>-0.01514273561120776</v>
       </c>
       <c r="D31">
-        <v>0.0003369421009956595</v>
+        <v>-0.02813744717180021</v>
       </c>
       <c r="E31">
-        <v>0.01740258540127094</v>
+        <v>-0.02742445794889003</v>
       </c>
       <c r="F31">
-        <v>-0.0141020142368331</v>
+        <v>-0.003966362182874868</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05093215702812587</v>
+        <v>-0.04823649419400728</v>
       </c>
       <c r="C32">
-        <v>0.02360836064800506</v>
+        <v>-0.0004361036648066332</v>
       </c>
       <c r="D32">
-        <v>0.03593196964332494</v>
+        <v>-0.03075381487573232</v>
       </c>
       <c r="E32">
-        <v>-0.05745800198719379</v>
+        <v>-0.02945445592819876</v>
       </c>
       <c r="F32">
-        <v>-0.04928651999982259</v>
+        <v>0.001823967154779715</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09401936636813535</v>
+        <v>-0.09034295045876096</v>
       </c>
       <c r="C33">
-        <v>0.0719521013519053</v>
+        <v>-0.009528405526102084</v>
       </c>
       <c r="D33">
-        <v>0.03834892964764218</v>
+        <v>-0.09387217177338927</v>
       </c>
       <c r="E33">
-        <v>0.007825178020548239</v>
+        <v>-0.0468172763876974</v>
       </c>
       <c r="F33">
-        <v>-0.01260927201821486</v>
+        <v>0.04187581270879733</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06904477801360198</v>
+        <v>-0.06845368892798848</v>
       </c>
       <c r="C34">
-        <v>0.05477509866997458</v>
+        <v>-0.01249661750477586</v>
       </c>
       <c r="D34">
-        <v>0.04442342630578648</v>
+        <v>-0.09800385807945608</v>
       </c>
       <c r="E34">
-        <v>-0.003994535726137579</v>
+        <v>-0.03548407378972311</v>
       </c>
       <c r="F34">
-        <v>-0.02035277643362376</v>
+        <v>0.04487301706995855</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0131839162015465</v>
+        <v>-0.02447372879880722</v>
       </c>
       <c r="C35">
-        <v>0.02082637287292362</v>
+        <v>-0.002551915433709923</v>
       </c>
       <c r="D35">
-        <v>0.007351011906089982</v>
+        <v>-0.0117623248846312</v>
       </c>
       <c r="E35">
-        <v>0.01557013166019832</v>
+        <v>-0.01168132389626914</v>
       </c>
       <c r="F35">
-        <v>0.01555845269907453</v>
+        <v>0.01021169109724182</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02240398632525903</v>
+        <v>-0.02406655214244587</v>
       </c>
       <c r="C36">
-        <v>0.01850444017499535</v>
+        <v>-0.007455831479146938</v>
       </c>
       <c r="D36">
-        <v>-0.01129307197072437</v>
+        <v>-0.03843590836648457</v>
       </c>
       <c r="E36">
-        <v>-0.005019057119969649</v>
+        <v>-0.01712288578007742</v>
       </c>
       <c r="F36">
-        <v>0.004763162942289049</v>
+        <v>0.01098630574002843</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0105132545886557</v>
+        <v>-0.001742512611402079</v>
       </c>
       <c r="C38">
-        <v>0.01798186544194722</v>
+        <v>-0.0002915557187905581</v>
       </c>
       <c r="D38">
-        <v>-0.02586535376924725</v>
+        <v>-0.00163064891311712</v>
       </c>
       <c r="E38">
-        <v>0.03255267951793184</v>
+        <v>-0.001859108804314031</v>
       </c>
       <c r="F38">
-        <v>0.07253733007774199</v>
+        <v>-0.00058530084138252</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1145263849034429</v>
+        <v>-0.1095071759902475</v>
       </c>
       <c r="C39">
-        <v>0.1109250046279344</v>
+        <v>-0.0179379981302405</v>
       </c>
       <c r="D39">
-        <v>0.1543846137453381</v>
+        <v>-0.1521404416033977</v>
       </c>
       <c r="E39">
-        <v>-0.008411013940212509</v>
+        <v>-0.06035486902299527</v>
       </c>
       <c r="F39">
-        <v>0.07806205852944884</v>
+        <v>0.03311067630095948</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02105241918098529</v>
+        <v>-0.0369780642996787</v>
       </c>
       <c r="C40">
-        <v>0.06530129117449905</v>
+        <v>-0.007341196447071637</v>
       </c>
       <c r="D40">
-        <v>-0.02810504375913063</v>
+        <v>-0.03210428363922827</v>
       </c>
       <c r="E40">
-        <v>0.05486448183547769</v>
+        <v>-0.004617546923885617</v>
       </c>
       <c r="F40">
-        <v>-0.05481970927827391</v>
+        <v>-0.01556005685569574</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02886637828360832</v>
+        <v>-0.02613735226002657</v>
       </c>
       <c r="C41">
-        <v>0.01649418359955333</v>
+        <v>-0.006815785994640265</v>
       </c>
       <c r="D41">
-        <v>0.01620371965643291</v>
+        <v>-0.01089445157925815</v>
       </c>
       <c r="E41">
-        <v>0.01006118925194909</v>
+        <v>-0.01215326608949597</v>
       </c>
       <c r="F41">
-        <v>0.02136061191018091</v>
+        <v>-0.009753884465396203</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03815190228394362</v>
+        <v>-0.04112192533960982</v>
       </c>
       <c r="C43">
-        <v>0.01680255456226213</v>
+        <v>-0.006829052965360119</v>
       </c>
       <c r="D43">
-        <v>-0.006598771388925939</v>
+        <v>-0.02014611800325651</v>
       </c>
       <c r="E43">
-        <v>-0.000696587707027248</v>
+        <v>-0.0248284554488969</v>
       </c>
       <c r="F43">
-        <v>0.05958606905354626</v>
+        <v>-0.01088699191513809</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1335494111680728</v>
+        <v>-0.07187420598442663</v>
       </c>
       <c r="C44">
-        <v>0.1572260510578998</v>
+        <v>-0.02205986566507079</v>
       </c>
       <c r="D44">
-        <v>-0.08187487245375479</v>
+        <v>-0.1008447836961604</v>
       </c>
       <c r="E44">
-        <v>0.09355691619943551</v>
+        <v>-0.06788630054125001</v>
       </c>
       <c r="F44">
-        <v>-0.02785106721394116</v>
+        <v>0.1684367921386731</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02959829953042391</v>
+        <v>-0.02196270616345455</v>
       </c>
       <c r="C46">
-        <v>0.003811375417631695</v>
+        <v>-0.004178276753309363</v>
       </c>
       <c r="D46">
-        <v>-0.02407655925055132</v>
+        <v>-0.01128190805279476</v>
       </c>
       <c r="E46">
-        <v>0.03120870449551526</v>
+        <v>-0.02309529251069411</v>
       </c>
       <c r="F46">
-        <v>0.04244000517647902</v>
+        <v>0.000708821745605843</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03854123976415285</v>
+        <v>-0.0519369288521577</v>
       </c>
       <c r="C47">
-        <v>0.03275222834409136</v>
+        <v>-0.003350595212901028</v>
       </c>
       <c r="D47">
-        <v>0.005363932255358468</v>
+        <v>-0.01253000076040457</v>
       </c>
       <c r="E47">
-        <v>0.01368514494363071</v>
+        <v>-0.02200297705100382</v>
       </c>
       <c r="F47">
-        <v>0.0009851808690343746</v>
+        <v>-0.04434604542790427</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04355838846351897</v>
+        <v>-0.04768843008393846</v>
       </c>
       <c r="C48">
-        <v>0.02208676223382434</v>
+        <v>-0.003274672331008474</v>
       </c>
       <c r="D48">
-        <v>0.009898000751225267</v>
+        <v>-0.04815005599361047</v>
       </c>
       <c r="E48">
-        <v>0.02025026000651416</v>
+        <v>0.003874668220771353</v>
       </c>
       <c r="F48">
-        <v>-0.03850489658042342</v>
+        <v>0.01131765548750801</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2147610455192942</v>
+        <v>-0.2033920209352777</v>
       </c>
       <c r="C49">
-        <v>-0.02860143216937375</v>
+        <v>-0.01738255791560425</v>
       </c>
       <c r="D49">
-        <v>0.01140984229137663</v>
+        <v>0.01134661623728231</v>
       </c>
       <c r="E49">
-        <v>0.07735836358844163</v>
+        <v>-0.03360986487474793</v>
       </c>
       <c r="F49">
-        <v>-0.1053592473134472</v>
+        <v>0.03740951139027084</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03776105070883799</v>
+        <v>-0.04837609363578965</v>
       </c>
       <c r="C50">
-        <v>0.02903077044699594</v>
+        <v>-0.01126063860807049</v>
       </c>
       <c r="D50">
-        <v>0.01790035156315777</v>
+        <v>-0.02649127124881753</v>
       </c>
       <c r="E50">
-        <v>0.006771847563013279</v>
+        <v>-0.02910539761466135</v>
       </c>
       <c r="F50">
-        <v>0.002604671007787665</v>
+        <v>0.008669990952804418</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01650068463971555</v>
+        <v>-0.002484359028321736</v>
       </c>
       <c r="C51">
-        <v>-0.0220405279525189</v>
+        <v>-0.0006406480585191782</v>
       </c>
       <c r="D51">
-        <v>-0.00468003257520106</v>
+        <v>0.003040145746715542</v>
       </c>
       <c r="E51">
-        <v>0.008653021370531856</v>
+        <v>0.000490725606506965</v>
       </c>
       <c r="F51">
-        <v>-0.003600355421588044</v>
+        <v>0.005755858653242223</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.09186204169683343</v>
+        <v>-0.1448567771601013</v>
       </c>
       <c r="C52">
-        <v>0.08775043005488083</v>
+        <v>-0.01352961165340585</v>
       </c>
       <c r="D52">
-        <v>0.02353513216644803</v>
+        <v>-0.05135547441748813</v>
       </c>
       <c r="E52">
-        <v>0.02341552942784961</v>
+        <v>-0.02284737259706896</v>
       </c>
       <c r="F52">
-        <v>0.06845135860737178</v>
+        <v>0.03431764869295141</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1593702173417262</v>
+        <v>-0.1739647912405972</v>
       </c>
       <c r="C53">
-        <v>0.04641358486576834</v>
+        <v>-0.01640337342890692</v>
       </c>
       <c r="D53">
-        <v>-0.006247047803683627</v>
+        <v>-0.0118883923505125</v>
       </c>
       <c r="E53">
-        <v>0.0463935475656964</v>
+        <v>-0.03552958426461686</v>
       </c>
       <c r="F53">
-        <v>0.09373813859636941</v>
+        <v>0.06365088715915521</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05695370498700036</v>
+        <v>-0.02190054853185324</v>
       </c>
       <c r="C54">
-        <v>0.0630042054499073</v>
+        <v>-0.01241527764111692</v>
       </c>
       <c r="D54">
-        <v>-0.006911172589920235</v>
+        <v>-0.03444910294823736</v>
       </c>
       <c r="E54">
-        <v>0.01781380701192853</v>
+        <v>-0.01522796520207785</v>
       </c>
       <c r="F54">
-        <v>-0.01844791100533456</v>
+        <v>-0.003599094817443234</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08899790377084893</v>
+        <v>-0.1144100302621203</v>
       </c>
       <c r="C55">
-        <v>0.04522279071780628</v>
+        <v>-0.01504866618468589</v>
       </c>
       <c r="D55">
-        <v>0.03494169377121692</v>
+        <v>-0.01125086211948871</v>
       </c>
       <c r="E55">
-        <v>0.02027399186751994</v>
+        <v>-0.03063931184150117</v>
       </c>
       <c r="F55">
-        <v>0.04444498896751152</v>
+        <v>0.04579286131687772</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1532822484944462</v>
+        <v>-0.1776592013376849</v>
       </c>
       <c r="C56">
-        <v>0.07382887723286562</v>
+        <v>-0.01378109750579722</v>
       </c>
       <c r="D56">
-        <v>0.02504967772205494</v>
+        <v>-0.007444264800631647</v>
       </c>
       <c r="E56">
-        <v>0.07976233797653068</v>
+        <v>-0.04014643775805547</v>
       </c>
       <c r="F56">
-        <v>0.05488061164476066</v>
+        <v>0.0396589010269103</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0607274180449849</v>
+        <v>-0.04608137207703789</v>
       </c>
       <c r="C58">
-        <v>0.0447137147900771</v>
+        <v>-0.002369873612616523</v>
       </c>
       <c r="D58">
-        <v>-0.03729260944256603</v>
+        <v>-0.06525609639003498</v>
       </c>
       <c r="E58">
-        <v>0.03292384973309718</v>
+        <v>-0.02246129894240028</v>
       </c>
       <c r="F58">
-        <v>0.06172577693940981</v>
+        <v>-0.04596121531242742</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2018757830355871</v>
+        <v>-0.1713376672967946</v>
       </c>
       <c r="C59">
-        <v>-0.2395464112025042</v>
+        <v>-0.01607122357304267</v>
       </c>
       <c r="D59">
-        <v>0.04173715761281178</v>
+        <v>0.2258402621938764</v>
       </c>
       <c r="E59">
-        <v>-0.02691681812752797</v>
+        <v>0.04898618467929381</v>
       </c>
       <c r="F59">
-        <v>-0.0707096667676088</v>
+        <v>-0.03157524925621093</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2348776681960403</v>
+        <v>-0.2372289426850304</v>
       </c>
       <c r="C60">
-        <v>0.0839103860507928</v>
+        <v>0.004072846505626337</v>
       </c>
       <c r="D60">
-        <v>0.05754922227406938</v>
+        <v>-0.04688602062519524</v>
       </c>
       <c r="E60">
-        <v>0.1131325416727318</v>
+        <v>-0.006382284916990083</v>
       </c>
       <c r="F60">
-        <v>-0.03764270252811026</v>
+        <v>-0.02968083658359906</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1066866816452982</v>
+        <v>-0.0842100870026834</v>
       </c>
       <c r="C61">
-        <v>0.06970281012055482</v>
+        <v>-0.01403896197988068</v>
       </c>
       <c r="D61">
-        <v>0.1015713184289359</v>
+        <v>-0.1122387608457422</v>
       </c>
       <c r="E61">
-        <v>0.02090892752831055</v>
+        <v>-0.0414157985661343</v>
       </c>
       <c r="F61">
-        <v>0.03784464782959614</v>
+        <v>0.01905284579170766</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1518403705963207</v>
+        <v>-0.1705071712836837</v>
       </c>
       <c r="C62">
-        <v>0.05336513750593006</v>
+        <v>-0.01775336469986226</v>
       </c>
       <c r="D62">
-        <v>-0.008708387798679358</v>
+        <v>-0.01101875465296581</v>
       </c>
       <c r="E62">
-        <v>0.05841308750266084</v>
+        <v>-0.03771805232867378</v>
       </c>
       <c r="F62">
-        <v>0.04933898519438856</v>
+        <v>0.02150170883355368</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04228685039772921</v>
+        <v>-0.04299735007854553</v>
       </c>
       <c r="C63">
-        <v>0.02117320274173176</v>
+        <v>-0.003569138334220692</v>
       </c>
       <c r="D63">
-        <v>0.005244244821261377</v>
+        <v>-0.05068473217843775</v>
       </c>
       <c r="E63">
-        <v>-0.02824070754499574</v>
+        <v>-0.02238357586634951</v>
       </c>
       <c r="F63">
-        <v>-0.01102045308551325</v>
+        <v>0.008009975879197499</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09277057803502521</v>
+        <v>-0.1122047225764835</v>
       </c>
       <c r="C64">
-        <v>0.05042720348052635</v>
+        <v>-0.0119742803994147</v>
       </c>
       <c r="D64">
-        <v>0.01060125778538691</v>
+        <v>-0.04244071551022614</v>
       </c>
       <c r="E64">
-        <v>0.06376402731571044</v>
+        <v>-0.02123974455994575</v>
       </c>
       <c r="F64">
-        <v>0.03886095269408536</v>
+        <v>0.02354759197046925</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1137428938959727</v>
+        <v>-0.1443959077697566</v>
       </c>
       <c r="C65">
-        <v>0.01525846807385686</v>
+        <v>-0.03117046910980802</v>
       </c>
       <c r="D65">
-        <v>0.004935544438673293</v>
+        <v>0.04322770360440045</v>
       </c>
       <c r="E65">
-        <v>-0.05889080550695536</v>
+        <v>-0.0004337795579517406</v>
       </c>
       <c r="F65">
-        <v>0.04899810229052533</v>
+        <v>0.04208883031692908</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1320810590703322</v>
+        <v>-0.13110462035807</v>
       </c>
       <c r="C66">
-        <v>0.1324635267118774</v>
+        <v>-0.01560078342387794</v>
       </c>
       <c r="D66">
-        <v>0.1440086868588493</v>
+        <v>-0.1395335414860573</v>
       </c>
       <c r="E66">
-        <v>0.01527499068816707</v>
+        <v>-0.06672994732657815</v>
       </c>
       <c r="F66">
-        <v>0.07995517617007655</v>
+        <v>0.03845824084230277</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05682283481465782</v>
+        <v>-0.06256612379752589</v>
       </c>
       <c r="C67">
-        <v>0.03065002233156487</v>
+        <v>-0.003540604698375115</v>
       </c>
       <c r="D67">
-        <v>-0.02947411914605705</v>
+        <v>-0.05366653565060626</v>
       </c>
       <c r="E67">
-        <v>0.01557893122727303</v>
+        <v>-0.01932837802997778</v>
       </c>
       <c r="F67">
-        <v>0.07987828909656215</v>
+        <v>-0.03865815442053057</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1205472331729032</v>
+        <v>-0.1155252473435372</v>
       </c>
       <c r="C68">
-        <v>-0.2487367761740281</v>
+        <v>-0.02555408408298851</v>
       </c>
       <c r="D68">
-        <v>0.01962753236392572</v>
+        <v>0.2647999575838383</v>
       </c>
       <c r="E68">
-        <v>-0.07202056894940256</v>
+        <v>0.08603033354062103</v>
       </c>
       <c r="F68">
-        <v>0.009778773732033954</v>
+        <v>0.0365214477851741</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03672860785881941</v>
+        <v>-0.0392833727459285</v>
       </c>
       <c r="C69">
-        <v>-0.01380498293104654</v>
+        <v>-0.001076641498082854</v>
       </c>
       <c r="D69">
-        <v>-0.001444195390579022</v>
+        <v>-0.009113813388537497</v>
       </c>
       <c r="E69">
-        <v>0.006732242946523827</v>
+        <v>-0.0241551097831387</v>
       </c>
       <c r="F69">
-        <v>0.05705003013911497</v>
+        <v>-0.01278053731755413</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03470763075641466</v>
+        <v>-0.06369842754635256</v>
       </c>
       <c r="C70">
-        <v>0.00783789426986089</v>
+        <v>0.0276666936575318</v>
       </c>
       <c r="D70">
-        <v>0.03721037037378847</v>
+        <v>-0.02631756925122217</v>
       </c>
       <c r="E70">
-        <v>0.0162896223159039</v>
+        <v>0.04849790637882422</v>
       </c>
       <c r="F70">
-        <v>0.07302517536060694</v>
+        <v>-0.2806029608147349</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1398612680283451</v>
+        <v>-0.1343671238030823</v>
       </c>
       <c r="C71">
-        <v>-0.2665219177622356</v>
+        <v>-0.02984416184672584</v>
       </c>
       <c r="D71">
-        <v>0.01585732209200243</v>
+        <v>0.2801413296560804</v>
       </c>
       <c r="E71">
-        <v>-0.0345292978685195</v>
+        <v>0.0944993112356264</v>
       </c>
       <c r="F71">
-        <v>0.05146867554208303</v>
+        <v>0.04121739846388508</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1440742440515902</v>
+        <v>-0.1398353530861987</v>
       </c>
       <c r="C72">
-        <v>0.01908783364879317</v>
+        <v>-0.0245661474901167</v>
       </c>
       <c r="D72">
-        <v>-0.007220204314415463</v>
+        <v>-0.005056763656313835</v>
       </c>
       <c r="E72">
-        <v>0.007782309463324434</v>
+        <v>-0.04510930495118293</v>
       </c>
       <c r="F72">
-        <v>0.03314615238120894</v>
+        <v>0.02143247182502098</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2168026830486041</v>
+        <v>-0.2044577165781776</v>
       </c>
       <c r="C73">
-        <v>0.01975725072331001</v>
+        <v>-0.01144958361507227</v>
       </c>
       <c r="D73">
-        <v>0.1032723554154404</v>
+        <v>-0.01551351971440524</v>
       </c>
       <c r="E73">
-        <v>0.1539089085587551</v>
+        <v>-0.06158234180010982</v>
       </c>
       <c r="F73">
-        <v>0.03897030900736715</v>
+        <v>0.03816071709113728</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1209795580669044</v>
+        <v>-0.09390733187227047</v>
       </c>
       <c r="C74">
-        <v>0.08809388196234114</v>
+        <v>-0.01213965423845411</v>
       </c>
       <c r="D74">
-        <v>0.006213924404420581</v>
+        <v>-0.02230144445307176</v>
       </c>
       <c r="E74">
-        <v>0.02717145794524913</v>
+        <v>-0.04896452673633887</v>
       </c>
       <c r="F74">
-        <v>0.1038901295372825</v>
+        <v>0.04238280964729816</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1095873919798761</v>
+        <v>-0.1299543841705078</v>
       </c>
       <c r="C75">
-        <v>0.06513465043169049</v>
+        <v>-0.02638993257462237</v>
       </c>
       <c r="D75">
-        <v>0.006378271541223128</v>
+        <v>-0.03380940794629463</v>
       </c>
       <c r="E75">
-        <v>0.02060709477423556</v>
+        <v>-0.06026956356249914</v>
       </c>
       <c r="F75">
-        <v>0.002179224365863533</v>
+        <v>0.01426508150078987</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0282771240363341</v>
+        <v>-0.004267435867592136</v>
       </c>
       <c r="C76">
-        <v>-0.009137865486103921</v>
+        <v>-0.001006047513683052</v>
       </c>
       <c r="D76">
-        <v>0.01268004188394732</v>
+        <v>0.002058265632052504</v>
       </c>
       <c r="E76">
-        <v>0.02469169987056966</v>
+        <v>-0.001540471895940411</v>
       </c>
       <c r="F76">
-        <v>0.01218786875212342</v>
+        <v>0.004109935231127849</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06427007061415869</v>
+        <v>-0.07891579721687725</v>
       </c>
       <c r="C77">
-        <v>0.04324167863283429</v>
+        <v>-0.0102686614433597</v>
       </c>
       <c r="D77">
-        <v>0.02709281524358865</v>
+        <v>-0.1119795971756926</v>
       </c>
       <c r="E77">
-        <v>0.04471986490530559</v>
+        <v>-0.03775540225850352</v>
       </c>
       <c r="F77">
-        <v>-0.05147467848052685</v>
+        <v>0.03417044699461584</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1298088431819105</v>
+        <v>-0.105308669884962</v>
       </c>
       <c r="C78">
-        <v>0.1033333388049989</v>
+        <v>-0.04182885691928705</v>
       </c>
       <c r="D78">
-        <v>-0.2118483216952985</v>
+        <v>-0.1171104180940382</v>
       </c>
       <c r="E78">
-        <v>-0.1099695713235742</v>
+        <v>-0.08389766456723098</v>
       </c>
       <c r="F78">
-        <v>-0.6860651756359716</v>
+        <v>0.07644372749119938</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1295885831566695</v>
+        <v>-0.164490233753477</v>
       </c>
       <c r="C79">
-        <v>0.05233612330250762</v>
+        <v>-0.0203557682132076</v>
       </c>
       <c r="D79">
-        <v>-0.01080031555114647</v>
+        <v>-0.01897838701369842</v>
       </c>
       <c r="E79">
-        <v>0.04926047281324316</v>
+        <v>-0.04934136969349576</v>
       </c>
       <c r="F79">
-        <v>0.04081283061506818</v>
+        <v>0.005549902723261951</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07928433958552533</v>
+        <v>-0.0804539727328669</v>
       </c>
       <c r="C80">
-        <v>0.08288070315121232</v>
+        <v>0.0003622178262850419</v>
       </c>
       <c r="D80">
-        <v>0.07961474349248249</v>
+        <v>-0.05878746339365955</v>
       </c>
       <c r="E80">
-        <v>0.01712112375755313</v>
+        <v>-0.03534765624672583</v>
       </c>
       <c r="F80">
-        <v>0.05103121838454038</v>
+        <v>-0.01428295187892552</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1380193386748041</v>
+        <v>-0.1231714153277737</v>
       </c>
       <c r="C81">
-        <v>0.08411291153153978</v>
+        <v>-0.03037479863956506</v>
       </c>
       <c r="D81">
-        <v>0.002722009185395689</v>
+        <v>-0.01856455733312565</v>
       </c>
       <c r="E81">
-        <v>0.04242063912608848</v>
+        <v>-0.05968459410618272</v>
       </c>
       <c r="F81">
-        <v>0.01602711351060038</v>
+        <v>0.004165287828862889</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1507062713334351</v>
+        <v>-0.1637652313226666</v>
       </c>
       <c r="C82">
-        <v>0.07143149374143978</v>
+        <v>-0.02136193782888639</v>
       </c>
       <c r="D82">
-        <v>0.01784245086212316</v>
+        <v>-0.01552984313683273</v>
       </c>
       <c r="E82">
-        <v>0.04654021386304679</v>
+        <v>-0.03433696659284879</v>
       </c>
       <c r="F82">
-        <v>0.07810910818873193</v>
+        <v>0.06107863159791745</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08474052770357533</v>
+        <v>-0.06358922255489495</v>
       </c>
       <c r="C83">
-        <v>0.1340392279925862</v>
+        <v>-0.003500884229257112</v>
       </c>
       <c r="D83">
-        <v>-0.004837821710966734</v>
+        <v>-0.04856192584751255</v>
       </c>
       <c r="E83">
-        <v>-0.0006793082056917634</v>
+        <v>-0.004262959742764564</v>
       </c>
       <c r="F83">
-        <v>0.04630284287885204</v>
+        <v>-0.03976764133543451</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05476707752514428</v>
+        <v>-0.05939021034914751</v>
       </c>
       <c r="C84">
-        <v>-0.0925699334589993</v>
+        <v>-0.01128994406996263</v>
       </c>
       <c r="D84">
-        <v>0.05674979112385982</v>
+        <v>-0.06305163953264177</v>
       </c>
       <c r="E84">
-        <v>-0.009119706502034251</v>
+        <v>-0.0009424130234801177</v>
       </c>
       <c r="F84">
-        <v>-0.215788330895381</v>
+        <v>0.01172881954209955</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1235876953354021</v>
+        <v>-0.1385904107780709</v>
       </c>
       <c r="C85">
-        <v>0.04807564146719484</v>
+        <v>-0.02583314077267152</v>
       </c>
       <c r="D85">
-        <v>0.01371414484304147</v>
+        <v>-0.01506176665934533</v>
       </c>
       <c r="E85">
-        <v>0.06643575301138807</v>
+        <v>-0.04115051083397745</v>
       </c>
       <c r="F85">
-        <v>0.05608843137632639</v>
+        <v>0.04336400990588206</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08782821381250502</v>
+        <v>-0.09789080377043202</v>
       </c>
       <c r="C86">
-        <v>0.0017949185746963</v>
+        <v>0.007082866608762958</v>
       </c>
       <c r="D86">
-        <v>-0.01476370732668917</v>
+        <v>-0.02160563865462878</v>
       </c>
       <c r="E86">
-        <v>0.1411306706868818</v>
+        <v>-0.1518523149371125</v>
       </c>
       <c r="F86">
-        <v>-0.469623744037335</v>
+        <v>-0.8648159139162328</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1156783743344651</v>
+        <v>-0.09854012719527343</v>
       </c>
       <c r="C87">
-        <v>0.1171738033799352</v>
+        <v>-0.0250712414563908</v>
       </c>
       <c r="D87">
-        <v>-0.02685709080206232</v>
+        <v>-0.07667198465969556</v>
       </c>
       <c r="E87">
-        <v>0.0780162965540797</v>
+        <v>0.05253618611439233</v>
       </c>
       <c r="F87">
-        <v>-0.06389497909410448</v>
+        <v>0.07816204622625884</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05227461396778843</v>
+        <v>-0.06136216689399739</v>
       </c>
       <c r="C88">
-        <v>0.05037476047391188</v>
+        <v>-0.003039492282331418</v>
       </c>
       <c r="D88">
-        <v>0.04682139343965478</v>
+        <v>-0.05373192078434195</v>
       </c>
       <c r="E88">
-        <v>0.02703321149820943</v>
+        <v>-0.02756329047208798</v>
       </c>
       <c r="F88">
-        <v>0.04803863390928335</v>
+        <v>0.008641699267559593</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1979934771324371</v>
+        <v>-0.1349439202540827</v>
       </c>
       <c r="C89">
-        <v>-0.3602414389777616</v>
+        <v>-0.007909878997692254</v>
       </c>
       <c r="D89">
-        <v>-0.04346917562952963</v>
+        <v>0.2589781574388201</v>
       </c>
       <c r="E89">
-        <v>-0.02512549599185306</v>
+        <v>0.09096948336557016</v>
       </c>
       <c r="F89">
-        <v>0.01699215017625779</v>
+        <v>0.02479763588677042</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.151392812781441</v>
+        <v>-0.1452268366304209</v>
       </c>
       <c r="C90">
-        <v>-0.2579342991108846</v>
+        <v>-0.02519216013661402</v>
       </c>
       <c r="D90">
-        <v>0.02229580629397154</v>
+        <v>0.2675933163465531</v>
       </c>
       <c r="E90">
-        <v>-0.02277856793416215</v>
+        <v>0.1079413266098875</v>
       </c>
       <c r="F90">
-        <v>0.03357055182364038</v>
+        <v>0.02511062418048587</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07844931033854455</v>
+        <v>-0.1187348749660391</v>
       </c>
       <c r="C91">
-        <v>0.0393934042693869</v>
+        <v>-0.01673273016481773</v>
       </c>
       <c r="D91">
-        <v>0.002237954588561863</v>
+        <v>0.007171534190019462</v>
       </c>
       <c r="E91">
-        <v>0.04541517562905177</v>
+        <v>-0.05731445040027427</v>
       </c>
       <c r="F91">
-        <v>0.02087126924386357</v>
+        <v>-0.02035332818575004</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1698472380125345</v>
+        <v>-0.1491529769635615</v>
       </c>
       <c r="C92">
-        <v>-0.2961141345488626</v>
+        <v>-0.01718709856334694</v>
       </c>
       <c r="D92">
-        <v>-0.03107685075826413</v>
+        <v>0.2981958861166705</v>
       </c>
       <c r="E92">
-        <v>-0.03340759689634658</v>
+        <v>0.1028475276071572</v>
       </c>
       <c r="F92">
-        <v>-0.001731821867566153</v>
+        <v>0.02151569664109933</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1531262147327601</v>
+        <v>-0.1499613232223287</v>
       </c>
       <c r="C93">
-        <v>-0.3177015611948908</v>
+        <v>-0.0218627206589927</v>
       </c>
       <c r="D93">
-        <v>0.05274631726812973</v>
+        <v>0.2701705585580336</v>
       </c>
       <c r="E93">
-        <v>-0.02867551309282206</v>
+        <v>0.07350703539024347</v>
       </c>
       <c r="F93">
-        <v>0.0232097703044671</v>
+        <v>0.01744586029599597</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1340604989067914</v>
+        <v>-0.1331982608959401</v>
       </c>
       <c r="C94">
-        <v>0.05992981257688462</v>
+        <v>-0.02380668766672243</v>
       </c>
       <c r="D94">
-        <v>-0.009364836395840345</v>
+        <v>-0.04588672799999111</v>
       </c>
       <c r="E94">
-        <v>0.03138108301536179</v>
+        <v>-0.0609550385680409</v>
       </c>
       <c r="F94">
-        <v>0.03284381144842351</v>
+        <v>0.03146299768142647</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1207581218246241</v>
+        <v>-0.1260405690573339</v>
       </c>
       <c r="C95">
-        <v>0.05341959473813416</v>
+        <v>-0.00546133355348823</v>
       </c>
       <c r="D95">
-        <v>-0.01706841064717166</v>
+        <v>-0.09117754835690688</v>
       </c>
       <c r="E95">
-        <v>0.03677421178129309</v>
+        <v>-0.04428920952982145</v>
       </c>
       <c r="F95">
-        <v>-0.1130488531797413</v>
+        <v>-0.01196370752764671</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.009068108285140377</v>
+        <v>-0.09857036469267888</v>
       </c>
       <c r="C96">
-        <v>0.004300433665162416</v>
+        <v>0.9889367490908836</v>
       </c>
       <c r="D96">
-        <v>-0.003822027117074277</v>
+        <v>0.02750169018799101</v>
       </c>
       <c r="E96">
-        <v>-0.0002226740519372751</v>
+        <v>-0.05800248862350865</v>
       </c>
       <c r="F96">
-        <v>-0.02813252151019936</v>
+        <v>0.04793264880111427</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1747055775461475</v>
+        <v>-0.1882138386308586</v>
       </c>
       <c r="C97">
-        <v>0.1745547810499751</v>
+        <v>0.01107181415789706</v>
       </c>
       <c r="D97">
-        <v>-0.1116249358445729</v>
+        <v>0.007351972826464242</v>
       </c>
       <c r="E97">
-        <v>-0.8926941845232537</v>
+        <v>-0.01851409941047269</v>
       </c>
       <c r="F97">
-        <v>0.03404680714404083</v>
+        <v>-0.1757979644744942</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.241142145140361</v>
+        <v>-0.2048440408286789</v>
       </c>
       <c r="C98">
-        <v>0.04667148328724729</v>
+        <v>-0.007006018608681037</v>
       </c>
       <c r="D98">
-        <v>-0.08214633888559826</v>
+        <v>-0.01131370013363096</v>
       </c>
       <c r="E98">
-        <v>0.02328493038153686</v>
+        <v>0.09773113190588531</v>
       </c>
       <c r="F98">
-        <v>0.07686877116457271</v>
+        <v>-0.1168158450066876</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05243433478922851</v>
+        <v>-0.05663693903895577</v>
       </c>
       <c r="C99">
-        <v>0.00464846049702038</v>
+        <v>0.003765700106385754</v>
       </c>
       <c r="D99">
-        <v>-0.006993824828938969</v>
+        <v>-0.03567014661764308</v>
       </c>
       <c r="E99">
-        <v>0.008974989352056041</v>
+        <v>-0.02670962013780857</v>
       </c>
       <c r="F99">
-        <v>0.007042245633740223</v>
+        <v>0.004948350140388432</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.02942986721411323</v>
+        <v>-0.1244724739696262</v>
       </c>
       <c r="C100">
-        <v>0.06286721532153518</v>
+        <v>0.04942884253244804</v>
       </c>
       <c r="D100">
-        <v>0.04338643135464099</v>
+        <v>-0.3433514962838917</v>
       </c>
       <c r="E100">
-        <v>-0.09826676612770628</v>
+        <v>0.8962374858786973</v>
       </c>
       <c r="F100">
-        <v>0.207028689281464</v>
+        <v>-0.0746802225926336</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03559365574053379</v>
+        <v>-0.02704827410229164</v>
       </c>
       <c r="C101">
-        <v>0.03246930521222662</v>
+        <v>-0.008859003923121746</v>
       </c>
       <c r="D101">
-        <v>0.02719692397036827</v>
+        <v>-0.03149742152427865</v>
       </c>
       <c r="E101">
-        <v>0.03318220789205054</v>
+        <v>-0.01180381191523669</v>
       </c>
       <c r="F101">
-        <v>0.01676589480109675</v>
+        <v>-0.0135462569735967</v>
       </c>
     </row>
     <row r="102" spans="1:6">
